--- a/Результаты/РасчетПрофиля.xlsx
+++ b/Результаты/РасчетПрофиля.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\askar\Desktop\applana\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\askar\Desktop\x\Результаты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F672C55-0560-4466-8A83-42B8E8ED3176}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16220C03-7B76-4C2D-BC7A-8BB61272E992}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="765" windowWidth="19440" windowHeight="15150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="69">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -228,6 +228,15 @@
   </si>
   <si>
     <t>fill_pay_info</t>
+  </si>
+  <si>
+    <t>click_signup</t>
+  </si>
+  <si>
+    <t>fill_info_acc</t>
+  </si>
+  <si>
+    <t>Создание аккаунта</t>
   </si>
 </sst>
 </file>
@@ -678,7 +687,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -880,6 +889,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -968,7 +986,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1043,13 +1061,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="45"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="45"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="45"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="65"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="65"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="85">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1152,7 +1173,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="as as" refreshedDate="44094.691792708334" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="22" xr:uid="{849ED774-79A0-8640-B03A-801DA7FF34DA}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="as as" refreshedDate="44095.770388194447" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="22" xr:uid="{849ED774-79A0-8640-B03A-801DA7FF34DA}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H23" sheet="Автоматизированный расчет"/>
   </cacheSource>
@@ -1424,7 +1445,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1C1B8241-71E6-3F4A-ACE2-C3E8BA417ED7}" name="Сводная таблица2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1C1B8241-71E6-3F4A-ACE2-C3E8BA417ED7}" name="Сводная таблица2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -1902,10 +1923,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A73EA1-9683-764A-B533-D46D1B03E170}">
-  <dimension ref="A1:X47"/>
+  <dimension ref="A1:X48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2940,18 +2961,18 @@
         <f t="shared" ref="G26:G32" si="38">C26/3</f>
         <v>125.07268170426066</v>
       </c>
-      <c r="H26" s="42">
-        <v>144</v>
+      <c r="H26">
+        <v>132</v>
       </c>
       <c r="I26" s="26">
         <f>1-G26/H26</f>
-        <v>0.1314397103870788</v>
-      </c>
-      <c r="K26" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="L26" s="41">
-        <v>92</v>
+        <v>5.2479684058631348E-2</v>
+      </c>
+      <c r="K26" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="57" thickBot="1" x14ac:dyDescent="0.3">
@@ -2973,18 +2994,18 @@
         <f t="shared" si="38"/>
         <v>98.406015037593988</v>
       </c>
-      <c r="H27" s="34">
-        <v>111</v>
+      <c r="H27">
+        <v>99</v>
       </c>
       <c r="I27" s="26">
         <f t="shared" ref="I27:I32" si="41">1-G27/H27</f>
-        <v>0.11345932398563974</v>
-      </c>
-      <c r="K27" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="L27" s="41">
-        <v>100</v>
+        <v>5.9998481051112273E-3</v>
+      </c>
+      <c r="K27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27">
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3006,18 +3027,18 @@
         <f t="shared" si="38"/>
         <v>81.263157894736835</v>
       </c>
-      <c r="H28" s="39">
-        <v>92</v>
+      <c r="H28">
+        <v>82</v>
       </c>
       <c r="I28" s="26">
         <f t="shared" si="41"/>
-        <v>0.11670480549199092</v>
-      </c>
-      <c r="K28" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="L28" s="41">
-        <v>28</v>
+        <v>8.9858793324776309E-3</v>
+      </c>
+      <c r="K28" t="s">
+        <v>59</v>
+      </c>
+      <c r="L28">
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3039,18 +3060,18 @@
         <f t="shared" si="38"/>
         <v>56</v>
       </c>
-      <c r="H29" s="34">
-        <v>64</v>
+      <c r="H29">
+        <v>56</v>
       </c>
       <c r="I29" s="26">
         <f t="shared" si="41"/>
-        <v>0.125</v>
-      </c>
-      <c r="K29" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="L29" s="41">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>60</v>
+      </c>
+      <c r="L29">
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3072,18 +3093,18 @@
         <f t="shared" si="38"/>
         <v>50.666666666666664</v>
       </c>
-      <c r="H30" s="34">
-        <v>58</v>
+      <c r="H30">
+        <v>52</v>
       </c>
       <c r="I30" s="26">
         <f t="shared" si="41"/>
-        <v>0.12643678160919547</v>
-      </c>
-      <c r="K30" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="L30" s="41">
-        <v>111</v>
+        <v>2.5641025641025661E-2</v>
+      </c>
+      <c r="K30" t="s">
+        <v>59</v>
+      </c>
+      <c r="L30">
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3105,18 +3126,18 @@
         <f t="shared" si="38"/>
         <v>24</v>
       </c>
-      <c r="H31" s="42">
-        <v>28</v>
+      <c r="H31">
+        <v>24</v>
       </c>
       <c r="I31" s="26">
         <f t="shared" si="41"/>
-        <v>0.1428571428571429</v>
-      </c>
-      <c r="K31" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="L31" s="41">
-        <v>121</v>
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>61</v>
+      </c>
+      <c r="L31">
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3135,21 +3156,21 @@
         <v>1.9236934915036863E-2</v>
       </c>
       <c r="G32" s="34">
-        <f t="shared" si="38"/>
-        <v>125.07268170426066</v>
-      </c>
-      <c r="H32" s="42">
-        <v>139</v>
+        <f>C34/3</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="H32">
+        <v>131</v>
       </c>
       <c r="I32" s="26">
         <f t="shared" si="41"/>
-        <v>0.10019653450172183</v>
-      </c>
-      <c r="K32" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="L32" s="41">
-        <v>114</v>
+        <v>0.97455470737913485</v>
+      </c>
+      <c r="K32" t="s">
+        <v>59</v>
+      </c>
+      <c r="L32">
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3168,112 +3189,155 @@
         <v>3.2374615439649812E-3</v>
       </c>
       <c r="E33" s="4"/>
-      <c r="K33" s="42" t="s">
+      <c r="K33" t="s">
+        <v>62</v>
+      </c>
+      <c r="L33">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="40">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>3.3330000000000002</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34" s="41">
+        <f>1-G34/H34</f>
+        <v>0.16674999999999995</v>
+      </c>
+      <c r="K34" t="s">
         <v>59</v>
       </c>
-      <c r="L33" s="41">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K34" s="42" t="s">
+      <c r="L34">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K35" t="s">
         <v>63</v>
       </c>
-      <c r="L34" s="41">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K35" s="42" t="s">
+      <c r="L35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K36" t="s">
         <v>59</v>
       </c>
-      <c r="L35" s="41">
+      <c r="L36">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K36" s="42" t="s">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K37" t="s">
+        <v>66</v>
+      </c>
+      <c r="L37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K38" t="s">
+        <v>59</v>
+      </c>
+      <c r="L38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K39" t="s">
         <v>64</v>
       </c>
-      <c r="L36" s="41">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K37" s="42" t="s">
+      <c r="L39">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K40" t="s">
         <v>59</v>
       </c>
-      <c r="L37" s="41">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K38" s="42" t="s">
+      <c r="L40">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K41" t="s">
+        <v>67</v>
+      </c>
+      <c r="L41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K42" t="s">
+        <v>59</v>
+      </c>
+      <c r="L42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K43" t="s">
         <v>65</v>
       </c>
-      <c r="L38" s="41">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K39" s="42" t="s">
+      <c r="L43">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K44" t="s">
         <v>59</v>
       </c>
-      <c r="L39" s="41">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K40" s="42" t="s">
+      <c r="L44">
+        <v>68</v>
+      </c>
+      <c r="M44" s="37"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K45" t="s">
         <v>21</v>
       </c>
-      <c r="L40" s="41">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K41" s="42" t="s">
+      <c r="L45">
+        <v>132</v>
+      </c>
+      <c r="M45" s="37"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K46" t="s">
         <v>59</v>
       </c>
-      <c r="L41" s="41">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K42" s="42" t="s">
+      <c r="L46">
+        <v>158</v>
+      </c>
+      <c r="M46" s="37"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K47" t="s">
         <v>22</v>
       </c>
-      <c r="L42" s="41">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K43" s="42" t="s">
+      <c r="L47">
+        <v>131</v>
+      </c>
+      <c r="M47" s="37"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K48" t="s">
         <v>59</v>
       </c>
-      <c r="L43" s="41">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K44" s="38"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="39"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K45" s="38"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="39"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K46" s="38"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="39"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K47" s="38"/>
-      <c r="L47" s="37"/>
-      <c r="M47" s="39"/>
+      <c r="L48">
+        <v>158</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3308,13 +3372,13 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
     </row>
     <row r="11" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="E11" s="5" t="s">
@@ -3467,13 +3531,13 @@
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" s="12" t="s">
@@ -3633,13 +3697,13 @@
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="40" t="s">
+      <c r="E35" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="12" t="s">
